--- a/Cosine_similarity_results.xlsx
+++ b/Cosine_similarity_results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Results Cosine" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Porter Cosine Detailed" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sastrawi Cosine Detailed" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results Cosine" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cosine Porter Detailed" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cosine Sastrawi Detailed" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,12 +443,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>rk_porter_cosine</t>
+          <t>cosine_porter</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>rk_sastrawi_cosine</t>
+          <t>cosine_sastrawi</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(22), (4), (13), (38), (90), (36), (15), (73), (5), (72), (30), (40), (51), (47), (79), (56)</t>
+          <t>(41), (22), (12), (18), (13), (90), (56), (69), (26), (71), (51), (89), (3), (4), (83), (31), (44), (47), (76), (35), (36), (49), (61), (73)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(22), (13), (4), (38), (90), (36), (15), (73), (5), (72), (30), (18), (40), (51), (69), (47), (79), (56)</t>
+          <t>(41), (22), (18), (12), (13), (90), (69), (56), (51), (44), (3), (89), (71), (4), (31), (26), (83), (49), (46), (61), (76), (47), (58), (36), (35), (60), (16), (78), (52), (79), (73), (68), (5), (1), (48)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -483,12 +483,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(8), (61), (17), (50), (18), (47), (15), (59), (37), (85), (73), (81), (4), (16), (87), (26), (60), (76), (62), (89), (56)</t>
+          <t>(61), (17), (59), (60), (47), (18), (8), (81), (50), (73), (15), (7), (53), (45), (82), (38), (44), (51), (24), (76), (27), (20), (49), (12), (69), (75), (16), (78), (66), (85), (89), (31), (87), (4), (39), (11), (80), (43), (13), (26), (3), (88), (28), (55), (48), (65), (67), (83), (86), (71), (70), (29), (35), (77), (90), (57), (21)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(8), (61), (17), (50), (18), (15), (60), (59), (76), (47), (37), (21), (34), (73), (81), (4), (16), (66), (87), (26), (51), (62), (69), (24), (89), (56)</t>
+          <t>(61), (17), (60), (59), (18), (8), (50), (47), (81), (7), (38), (73), (44), (45), (15), (82), (51), (53), (24), (76), (49), (69), (66), (12), (78), (27), (20), (16), (75), (4), (31), (39), (85), (43), (89), (87), (80), (13), (58), (11), (35), (26), (67), (3), (48), (65), (29), (28), (83), (21), (86), (25), (55), (90), (70), (88), (57), (71), (41), (52), (10), (40), (79), (33), (77)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -503,12 +503,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(12), (17), (39), (90), (33), (15), (53), (23), (70), (49), (47), (61), (43), (34), (29), (45), (7), (28), (13), (71), (18), (35)</t>
+          <t>(48), (33), (29), (70), (39), (69), (24), (49), (13), (81), (47), (28), (61), (15), (40), (80)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(12), (17), (39), (90), (33), (15), (53), (23), (70), (49), (47), (61), (43), (34), (29), (45), (7), (28), (13), (71), (18), (35)</t>
+          <t>(48), (70), (33), (40), (29), (47), (49), (28), (39), (67), (24), (15), (69), (81), (61), (11), (53), (30), (13), (18)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -523,12 +523,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(33), (28), (87), (40), (38), (34), (7), (31), (50), (8), (54), (85), (20), (12), (15), (43), (23), (3), (60), (86), (24)</t>
+          <t>(10), (2), (87), (39), (15), (31), (60), (50), (8), (7), (44), (4), (9), (47), (85), (49), (1), (38), (53), (48), (24), (76), (51), (28), (33), (61), (80), (11), (82), (86), (67), (20), (25), (65), (5), (18), (69), (70), (3), (17), (35), (45), (73), (43), (79), (37), (27), (55), (84), (90), (63), (21), (12)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(33), (28), (87), (40), (38), (34), (7), (31), (8), (50), (54), (85), (20), (43), (12), (15), (23), (3), (60), (69), (86), (24)</t>
+          <t>(10), (2), (39), (15), (87), (31), (60), (50), (85), (8), (7), (44), (49), (9), (1), (4), (47), (24), (48), (53), (38), (76), (51), (61), (80), (28), (79), (35), (25), (70), (82), (67), (86), (18), (69), (3), (11), (33), (43), (65), (17), (37), (55), (5), (84), (20), (45), (63), (27), (12), (73), (30), (26), (77), (90), (62), (34), (78), (59), (16), (42), (74), (29)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(80)</t>
+          <t>(18), (71), (44)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(80)</t>
+          <t>(18), (71), (44), (29), (1), (31), (47), (45)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -563,12 +563,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(21), (89)</t>
+          <t>(21), (27), (89), (55), (82), (49), (67), (16), (41), (20), (52), (59), (32), (39), (80), (85), (33), (15), (31), (87), (75), (57), (7), (42)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(21), (89)</t>
+          <t>(21), (27), (89), (55), (82), (49), (67), (52), (16), (63), (41), (59), (57), (15), (80), (20), (33), (85), (42), (31), (87), (39), (32), (75), (7), (62), (44), (43)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -583,12 +583,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(43), (54), (33), (28), (87)</t>
+          <t>(19), (16), (42), (53), (47), (14), (15), (56), (75), (28), (43), (82), (12), (44), (46), (85), (20), (60), (76), (74), (27), (31), (49), (7), (78), (24), (65), (89), (48), (81), (39), (3), (79), (90), (36), (25), (61), (5), (83), (51), (1), (58), (13), (59), (18)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(43), (54), (33), (28), (87)</t>
+          <t>(19), (42), (16), (15), (46), (14), (60), (56), (44), (74), (47), (53), (75), (12), (49), (85), (28), (58), (39), (79), (43), (82), (36), (48), (27), (57), (3), (31), (76), (24), (78), (90), (5), (65), (89), (7), (81), (1), (61), (25), (20), (51), (18), (88), (83), (13), (33), (52), (11), (59), (26), (30), (69)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(76), (77), (17), (58), (48), (59), (67), (69), (1), (62), (61), (85), (80), (20), (21), (68), (73), (11), (23), (7), (87), (13), (26)</t>
+          <t>(76), (81), (17), (61), (59), (1), (85), (75), (82), (20), (47), (18), (15), (69), (80), (53), (67), (44), (87), (60), (11), (49), (7), (39), (73), (62), (50), (48), (31), (8), (58), (12), (43), (21), (16), (13), (24), (3), (55), (77), (89), (38), (27), (35), (84), (90), (25), (65), (33), (66), (2), (28), (29), (4)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(76), (77), (17), (58), (48), (61), (85), (80), (20), (68), (73), (11), (23), (7), (78), (87), (13), (26), (82)</t>
+          <t>(76), (81), (17), (61), (59), (1), (75), (15), (82), (85), (53), (47), (18), (20), (69), (80), (67), (60), (11), (44), (49), (39), (7), (87), (62), (43), (50), (58), (48), (8), (16), (73), (89), (31), (21), (12), (13), (55), (3), (24), (77), (27), (38), (66), (78), (25), (33), (83), (84), (90), (4), (79), (70), (51), (26), (35), (28), (65), (10), (29), (2)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -623,12 +623,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(57), (85), (12), (15), (32), (52), (16), (7), (55), (60)</t>
+          <t>(46), (88), (53), (16), (74), (57), (3), (9), (32), (73), (27), (31), (63), (72), (52), (56), (65), (51), (14), (15), (42)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(57), (85), (12), (15), (32), (52), (16), (7), (55), (60)</t>
+          <t>(46), (88), (16), (53), (74), (52), (31), (57), (73), (27), (24), (32), (63), (42), (9), (65), (3), (51), (70), (5), (56), (60), (14), (39), (12), (15), (72), (7), (35), (75), (83)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -643,12 +643,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(59), (47), (61), (21), (48), (90), (33), (77), (12), (15), (53), (17), (23), (39), (70), (18), (49), (67), (69), (76), (1), (62), (54), (80), (43), (34), (29), (45), (81), (28), (13), (71)</t>
+          <t>(71), (29), (47), (17), (59), (1), (75), (85), (61), (67), (80), (11), (18), (76), (87), (15), (39), (53), (24), (20), (54), (7), (81), (49), (77), (62), (3), (70), (43), (13), (48), (12), (69), (31), (58), (82), (33), (38), (45), (8), (90)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(59), (47), (61), (21), (70), (18), (90), (33), (77), (12), (15), (53), (17), (23), (39), (49), (62), (67), (69), (76), (1), (54), (43), (80), (34), (29), (45), (81), (48), (28), (13), (75), (71)</t>
+          <t>(71), (29), (17), (47), (1), (59), (75), (61), (85), (67), (11), (18), (76), (15), (80), (39), (20), (24), (53), (87), (58), (7), (54), (49), (81), (77), (62), (43), (70), (3), (13), (33), (90), (48), (31), (12), (82), (69), (38), (8), (9), (45), (16), (28), (56)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -668,7 +668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,10 +698,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0293</v>
+        <v>0.3638</v>
       </c>
     </row>
     <row r="3">
@@ -709,10 +709,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0141</v>
+        <v>0.1515</v>
       </c>
     </row>
     <row r="4">
@@ -720,10 +720,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0132</v>
+        <v>0.1224</v>
       </c>
     </row>
     <row r="5">
@@ -731,10 +731,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.1195</v>
       </c>
     </row>
     <row r="6">
@@ -742,10 +742,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0083</v>
+        <v>0.1184</v>
       </c>
     </row>
     <row r="7">
@@ -753,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0076</v>
+        <v>0.1111</v>
       </c>
     </row>
     <row r="8">
@@ -764,10 +764,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0074</v>
+        <v>0.1103</v>
       </c>
     </row>
     <row r="9">
@@ -775,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0073</v>
+        <v>0.1037</v>
       </c>
     </row>
     <row r="10">
@@ -786,10 +786,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007</v>
+        <v>0.0873</v>
       </c>
     </row>
     <row r="11">
@@ -797,10 +797,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007</v>
+        <v>0.0796</v>
       </c>
     </row>
     <row r="12">
@@ -808,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0069</v>
+        <v>0.0788</v>
       </c>
     </row>
     <row r="13">
@@ -819,10 +819,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0064</v>
+        <v>0.07729999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -830,10 +830,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0064</v>
+        <v>0.0766</v>
       </c>
     </row>
     <row r="15">
@@ -841,10 +841,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0062</v>
+        <v>0.0725</v>
       </c>
     </row>
     <row r="16">
@@ -852,10 +852,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0061</v>
+        <v>0.0682</v>
       </c>
     </row>
     <row r="17">
@@ -863,98 +863,98 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0058</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0536</v>
+        <v>0.0644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0471</v>
+        <v>0.0558</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0394</v>
+        <v>0.0556</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0336</v>
+        <v>0.0512</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0211</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0204</v>
+        <v>0.0509</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0162</v>
+        <v>0.0509</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0141</v>
+        <v>0.0505</v>
       </c>
     </row>
     <row r="26">
@@ -962,10 +962,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0089</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="27">
@@ -973,10 +973,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="C27" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.2033</v>
       </c>
     </row>
     <row r="28">
@@ -984,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>0.008</v>
+        <v>0.1866</v>
       </c>
     </row>
     <row r="29">
@@ -995,10 +995,10 @@
         <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0078</v>
+        <v>0.1769</v>
       </c>
     </row>
     <row r="30">
@@ -1006,10 +1006,10 @@
         <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0077</v>
+        <v>0.1644</v>
       </c>
     </row>
     <row r="31">
@@ -1017,10 +1017,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0077</v>
+        <v>0.1603</v>
       </c>
     </row>
     <row r="32">
@@ -1028,10 +1028,10 @@
         <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0074</v>
+        <v>0.1587</v>
       </c>
     </row>
     <row r="33">
@@ -1039,10 +1039,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0073</v>
+        <v>0.1563</v>
       </c>
     </row>
     <row r="34">
@@ -1050,10 +1050,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0073</v>
+        <v>0.1553</v>
       </c>
     </row>
     <row r="35">
@@ -1061,10 +1061,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0069</v>
+        <v>0.1515</v>
       </c>
     </row>
     <row r="36">
@@ -1072,10 +1072,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0068</v>
+        <v>0.1463</v>
       </c>
     </row>
     <row r="37">
@@ -1083,10 +1083,10 @@
         <v>2</v>
       </c>
       <c r="B37" t="n">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0067</v>
+        <v>0.1444</v>
       </c>
     </row>
     <row r="38">
@@ -1094,1286 +1094,3321 @@
         <v>2</v>
       </c>
       <c r="B38" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0063</v>
+        <v>0.1414</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0306</v>
+        <v>0.1352</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0297</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0297</v>
+        <v>0.1308</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0229</v>
+        <v>0.1218</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0213</v>
+        <v>0.1199</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0204</v>
+        <v>0.1189</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" t="n">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0203</v>
+        <v>0.1156</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0197</v>
+        <v>0.1136</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0193</v>
+        <v>0.1132</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" t="n">
         <v>49</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0177</v>
+        <v>0.1129</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0171</v>
+        <v>0.1101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0169</v>
+        <v>0.1046</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" t="n">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0102</v>
+        <v>0.1004</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0101</v>
+        <v>0.1001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53" t="n">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01</v>
+        <v>0.0997</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C54" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.09719999999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0095</v>
+        <v>0.09619999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" t="n">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="C56" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.0927</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B57" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0091</v>
+        <v>0.0892</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B58" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C58" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0848</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C59" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.08019999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C60" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.0737</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B61" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0285</v>
+        <v>0.0712</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="C62" t="n">
-        <v>0.025</v>
+        <v>0.0677</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B63" t="n">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0248</v>
+        <v>0.0663</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0236</v>
+        <v>0.0648</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B65" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0214</v>
+        <v>0.06469999999999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B66" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C66" t="n">
-        <v>0.018</v>
+        <v>0.0643</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B67" t="n">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0168</v>
+        <v>0.0594</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B68" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0157</v>
+        <v>0.0593</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B69" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0151</v>
+        <v>0.0579</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B70" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C70" t="n">
-        <v>0.015</v>
+        <v>0.0575</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B71" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C71" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0572</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B72" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0095</v>
+        <v>0.0565</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0092</v>
+        <v>0.0564</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B74" t="n">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0091</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B75" t="n">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0091</v>
+        <v>0.0555</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B76" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0091</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B77" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C77" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.0544</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C78" t="n">
-        <v>0.008200000000000001</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B79" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0081</v>
+        <v>0.0535</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B80" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0078</v>
+        <v>0.0515</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B81" t="n">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0076</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B82" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C82" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.0507</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B83" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0095</v>
+        <v>0.2457</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B84" t="n">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0078</v>
+        <v>0.1077</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B85" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0209</v>
+        <v>0.08260000000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B86" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0111</v>
+        <v>0.0736</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B87" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0109</v>
+        <v>0.0649</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B88" t="n">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C88" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.06320000000000001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B89" t="n">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0095</v>
+        <v>0.0613</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B90" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0353</v>
+        <v>0.0603</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B91" t="n">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0336</v>
+        <v>0.0585</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B92" t="n">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0162</v>
+        <v>0.0574</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B93" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C93" t="n">
-        <v>0.016</v>
+        <v>0.0571</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B94" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0156</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B95" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0146</v>
+        <v>0.0556</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B96" t="n">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0143</v>
+        <v>0.0529</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B97" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0142</v>
+        <v>0.0518</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C98" t="n">
-        <v>0.014</v>
+        <v>0.0513</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B99" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C99" t="n">
-        <v>0.014</v>
+        <v>0.2379</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B100" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0139</v>
+        <v>0.1622</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B101" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C101" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.1354</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B102" t="n">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0086</v>
+        <v>0.1343</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B103" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C103" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.1307</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B104" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C104" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.1179</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B105" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C105" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.1168</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B106" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0083</v>
+        <v>0.1127</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B107" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0081</v>
+        <v>0.1088</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B108" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0081</v>
+        <v>0.1078</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B109" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0078</v>
+        <v>0.1054</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B110" t="n">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0076</v>
+        <v>0.0998</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B111" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0075</v>
+        <v>0.0956</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B112" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0075</v>
+        <v>0.09520000000000001</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B113" t="n">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C113" t="n">
-        <v>0.018</v>
+        <v>0.09520000000000001</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B114" t="n">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C114" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B115" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0086</v>
+        <v>0.0892</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B116" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0086</v>
+        <v>0.0868</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B117" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0083</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B118" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0083</v>
+        <v>0.08210000000000001</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B119" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0081</v>
+        <v>0.0798</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B120" t="n">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="C120" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.07770000000000001</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B121" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0077</v>
+        <v>0.0775</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B122" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0077</v>
+        <v>0.0769</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B123" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0309</v>
+        <v>0.0745</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B124" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0298</v>
+        <v>0.07439999999999999</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B125" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0295</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B126" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0268</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B127" t="n">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0249</v>
+        <v>0.0704</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B128" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0199</v>
+        <v>0.0698</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B129" t="n">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0186</v>
+        <v>0.0693</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B130" t="n">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0179</v>
+        <v>0.0675</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B131" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0178</v>
+        <v>0.0669</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B132" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0178</v>
+        <v>0.0668</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B133" t="n">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0177</v>
+        <v>0.06619999999999999</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B134" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0172</v>
+        <v>0.06569999999999999</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B135" t="n">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0172</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B136" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0172</v>
+        <v>0.0645</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B137" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0168</v>
+        <v>0.0644</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B138" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0154</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B139" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0154</v>
+        <v>0.06270000000000001</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B140" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0152</v>
+        <v>0.0592</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B141" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0151</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B142" t="n">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C142" t="n">
-        <v>0.015</v>
+        <v>0.0579</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0149</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B144" t="n">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0149</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B145" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0094</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B146" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0091</v>
+        <v>0.0557</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B147" t="n">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0089</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B148" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="C148" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.0535</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B149" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C149" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.0509</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B150" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C150" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.0507</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B151" t="n">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0086</v>
+        <v>0.0503</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B152" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0081</v>
+        <v>0.0742</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B153" t="n">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C153" t="n">
-        <v>0.008</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B154" t="n">
+        <v>44</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.0505</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>6</v>
+      </c>
+      <c r="B155" t="n">
+        <v>21</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.2805</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>6</v>
+      </c>
+      <c r="B156" t="n">
+        <v>27</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.2477</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>6</v>
+      </c>
+      <c r="B157" t="n">
+        <v>89</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.2097</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>6</v>
+      </c>
+      <c r="B158" t="n">
+        <v>55</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.2034</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>6</v>
+      </c>
+      <c r="B159" t="n">
+        <v>82</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.1964</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>6</v>
+      </c>
+      <c r="B160" t="n">
+        <v>49</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.1604</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>6</v>
+      </c>
+      <c r="B161" t="n">
+        <v>67</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.1056</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>6</v>
+      </c>
+      <c r="B162" t="n">
+        <v>16</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.0897</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>6</v>
+      </c>
+      <c r="B163" t="n">
+        <v>41</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.0825</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>6</v>
+      </c>
+      <c r="B164" t="n">
+        <v>20</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.0728</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>6</v>
+      </c>
+      <c r="B165" t="n">
+        <v>52</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.0725</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>6</v>
+      </c>
+      <c r="B166" t="n">
+        <v>59</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.0697</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>6</v>
+      </c>
+      <c r="B167" t="n">
+        <v>32</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>6</v>
+      </c>
+      <c r="B168" t="n">
+        <v>39</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.0614</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>6</v>
+      </c>
+      <c r="B169" t="n">
+        <v>80</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.0613</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>6</v>
+      </c>
+      <c r="B170" t="n">
+        <v>85</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.0597</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>6</v>
+      </c>
+      <c r="B171" t="n">
+        <v>33</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.0575</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>6</v>
+      </c>
+      <c r="B172" t="n">
+        <v>15</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.0572</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>6</v>
+      </c>
+      <c r="B173" t="n">
+        <v>31</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.0568</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>6</v>
+      </c>
+      <c r="B174" t="n">
+        <v>87</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.0561</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>6</v>
+      </c>
+      <c r="B175" t="n">
+        <v>75</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.0555</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>6</v>
+      </c>
+      <c r="B176" t="n">
+        <v>57</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.0542</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>6</v>
+      </c>
+      <c r="B177" t="n">
+        <v>7</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.053</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>6</v>
+      </c>
+      <c r="B178" t="n">
+        <v>42</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.0524</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>7</v>
+      </c>
+      <c r="B179" t="n">
+        <v>19</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.1629</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>7</v>
+      </c>
+      <c r="B180" t="n">
+        <v>16</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.1391</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>7</v>
+      </c>
+      <c r="B181" t="n">
+        <v>42</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.1318</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>7</v>
+      </c>
+      <c r="B182" t="n">
+        <v>53</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.1274</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>7</v>
+      </c>
+      <c r="B183" t="n">
+        <v>47</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.1031</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>7</v>
+      </c>
+      <c r="B184" t="n">
+        <v>14</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.0954</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>7</v>
+      </c>
+      <c r="B185" t="n">
+        <v>15</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.0949</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>7</v>
+      </c>
+      <c r="B186" t="n">
+        <v>56</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.09180000000000001</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>7</v>
+      </c>
+      <c r="B187" t="n">
+        <v>75</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.0906</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>7</v>
+      </c>
+      <c r="B188" t="n">
+        <v>28</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.08459999999999999</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>7</v>
+      </c>
+      <c r="B189" t="n">
+        <v>43</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.0833</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>7</v>
+      </c>
+      <c r="B190" t="n">
+        <v>82</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.0815</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>7</v>
+      </c>
+      <c r="B191" t="n">
+        <v>12</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.0793</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>7</v>
+      </c>
+      <c r="B192" t="n">
+        <v>44</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.0788</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>7</v>
+      </c>
+      <c r="B193" t="n">
+        <v>46</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.07779999999999999</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>7</v>
+      </c>
+      <c r="B194" t="n">
+        <v>85</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.0756</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>7</v>
+      </c>
+      <c r="B195" t="n">
+        <v>20</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.07489999999999999</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>7</v>
+      </c>
+      <c r="B196" t="n">
+        <v>60</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.0746</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>7</v>
+      </c>
+      <c r="B197" t="n">
+        <v>76</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.0731</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>7</v>
+      </c>
+      <c r="B198" t="n">
+        <v>74</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>7</v>
+      </c>
+      <c r="B199" t="n">
+        <v>27</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.0709</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>7</v>
+      </c>
+      <c r="B200" t="n">
+        <v>31</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.0697</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>7</v>
+      </c>
+      <c r="B201" t="n">
+        <v>49</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.06759999999999999</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>7</v>
+      </c>
+      <c r="B202" t="n">
+        <v>7</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.0653</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>7</v>
+      </c>
+      <c r="B203" t="n">
+        <v>78</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.06510000000000001</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>7</v>
+      </c>
+      <c r="B204" t="n">
+        <v>24</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.0648</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>7</v>
+      </c>
+      <c r="B205" t="n">
+        <v>65</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.0641</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>7</v>
+      </c>
+      <c r="B206" t="n">
+        <v>89</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>7</v>
+      </c>
+      <c r="B207" t="n">
+        <v>48</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.06320000000000001</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>7</v>
+      </c>
+      <c r="B208" t="n">
+        <v>81</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>7</v>
+      </c>
+      <c r="B209" t="n">
+        <v>39</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.0613</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>7</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.0612</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>7</v>
+      </c>
+      <c r="B211" t="n">
+        <v>79</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.0612</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>7</v>
+      </c>
+      <c r="B212" t="n">
+        <v>90</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.0612</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>7</v>
+      </c>
+      <c r="B213" t="n">
+        <v>36</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.0609</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>7</v>
+      </c>
+      <c r="B214" t="n">
+        <v>25</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.0595</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>7</v>
+      </c>
+      <c r="B215" t="n">
+        <v>61</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.0574</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>7</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.0554</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>7</v>
+      </c>
+      <c r="B217" t="n">
+        <v>83</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.0543</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>7</v>
+      </c>
+      <c r="B218" t="n">
+        <v>51</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.0533</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>7</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.0525</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>7</v>
+      </c>
+      <c r="B220" t="n">
+        <v>58</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.052</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>7</v>
+      </c>
+      <c r="B221" t="n">
+        <v>13</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.0515</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>7</v>
+      </c>
+      <c r="B222" t="n">
+        <v>59</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.0508</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>7</v>
+      </c>
+      <c r="B223" t="n">
+        <v>18</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.0502</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>8</v>
+      </c>
+      <c r="B224" t="n">
+        <v>76</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.3456</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>8</v>
+      </c>
+      <c r="B225" t="n">
+        <v>81</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.1933</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>8</v>
+      </c>
+      <c r="B226" t="n">
+        <v>17</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.1791</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>8</v>
+      </c>
+      <c r="B227" t="n">
+        <v>61</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.1768</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>8</v>
+      </c>
+      <c r="B228" t="n">
+        <v>59</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.1686</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>8</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.1542</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>8</v>
+      </c>
+      <c r="B230" t="n">
+        <v>85</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.1299</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>8</v>
+      </c>
+      <c r="B231" t="n">
+        <v>75</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.1277</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>8</v>
+      </c>
+      <c r="B232" t="n">
+        <v>82</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.1267</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>8</v>
+      </c>
+      <c r="B233" t="n">
+        <v>20</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.1238</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>8</v>
+      </c>
+      <c r="B234" t="n">
+        <v>47</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.1233</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>8</v>
+      </c>
+      <c r="B235" t="n">
+        <v>18</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.1192</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>8</v>
+      </c>
+      <c r="B236" t="n">
+        <v>15</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.1169</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>8</v>
+      </c>
+      <c r="B237" t="n">
+        <v>69</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.1157</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>8</v>
+      </c>
+      <c r="B238" t="n">
+        <v>80</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.1114</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>8</v>
+      </c>
+      <c r="B239" t="n">
+        <v>53</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.1098</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>8</v>
+      </c>
+      <c r="B240" t="n">
+        <v>67</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.1027</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>8</v>
+      </c>
+      <c r="B241" t="n">
+        <v>44</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.101</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>8</v>
+      </c>
+      <c r="B242" t="n">
+        <v>87</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.0968</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>8</v>
+      </c>
+      <c r="B243" t="n">
+        <v>60</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.09379999999999999</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>8</v>
+      </c>
+      <c r="B244" t="n">
+        <v>11</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.0915</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>8</v>
+      </c>
+      <c r="B245" t="n">
+        <v>49</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.0892</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>8</v>
+      </c>
+      <c r="B246" t="n">
+        <v>7</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>8</v>
+      </c>
+      <c r="B247" t="n">
+        <v>39</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.0873</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>8</v>
+      </c>
+      <c r="B248" t="n">
+        <v>73</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.0868</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>8</v>
+      </c>
+      <c r="B249" t="n">
+        <v>62</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.08550000000000001</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>8</v>
+      </c>
+      <c r="B250" t="n">
+        <v>50</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.0833</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>8</v>
+      </c>
+      <c r="B251" t="n">
+        <v>48</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.0827</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>8</v>
+      </c>
+      <c r="B252" t="n">
+        <v>31</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.08119999999999999</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>8</v>
+      </c>
+      <c r="B253" t="n">
+        <v>8</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.0804</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>8</v>
+      </c>
+      <c r="B254" t="n">
+        <v>58</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.0804</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>8</v>
+      </c>
+      <c r="B255" t="n">
+        <v>12</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.07580000000000001</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>8</v>
+      </c>
+      <c r="B256" t="n">
+        <v>43</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.0755</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>8</v>
+      </c>
+      <c r="B257" t="n">
+        <v>21</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.074</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>8</v>
+      </c>
+      <c r="B258" t="n">
+        <v>16</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.0727</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>8</v>
+      </c>
+      <c r="B259" t="n">
+        <v>13</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.0712</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>8</v>
+      </c>
+      <c r="B260" t="n">
+        <v>24</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.0703</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>8</v>
+      </c>
+      <c r="B261" t="n">
+        <v>3</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.0674</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>8</v>
+      </c>
+      <c r="B262" t="n">
+        <v>55</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.06660000000000001</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>8</v>
+      </c>
+      <c r="B263" t="n">
+        <v>77</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.0655</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>8</v>
+      </c>
+      <c r="B264" t="n">
+        <v>89</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.0653</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>8</v>
+      </c>
+      <c r="B265" t="n">
+        <v>38</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.0644</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>8</v>
+      </c>
+      <c r="B266" t="n">
+        <v>27</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.0638</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>8</v>
+      </c>
+      <c r="B267" t="n">
+        <v>35</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.0605</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>8</v>
+      </c>
+      <c r="B268" t="n">
+        <v>84</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.0592</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>8</v>
+      </c>
+      <c r="B269" t="n">
+        <v>90</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.0576</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>8</v>
+      </c>
+      <c r="B270" t="n">
+        <v>25</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.0573</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>8</v>
+      </c>
+      <c r="B271" t="n">
+        <v>65</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.0566</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>8</v>
+      </c>
+      <c r="B272" t="n">
+        <v>33</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.0565</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>8</v>
+      </c>
+      <c r="B273" t="n">
+        <v>66</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.0554</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>8</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.0552</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>8</v>
+      </c>
+      <c r="B275" t="n">
+        <v>28</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.0528</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>8</v>
+      </c>
+      <c r="B276" t="n">
+        <v>29</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.0523</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>8</v>
+      </c>
+      <c r="B277" t="n">
+        <v>4</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.0517</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>9</v>
+      </c>
+      <c r="B278" t="n">
+        <v>46</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.3993</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>9</v>
+      </c>
+      <c r="B279" t="n">
+        <v>88</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.1366</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>9</v>
+      </c>
+      <c r="B280" t="n">
+        <v>53</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.1318</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>9</v>
+      </c>
+      <c r="B281" t="n">
+        <v>16</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.1254</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>9</v>
+      </c>
+      <c r="B282" t="n">
+        <v>74</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>9</v>
+      </c>
+      <c r="B283" t="n">
+        <v>57</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>9</v>
+      </c>
+      <c r="B284" t="n">
+        <v>3</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>9</v>
+      </c>
+      <c r="B285" t="n">
+        <v>9</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.0888</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>9</v>
+      </c>
+      <c r="B286" t="n">
+        <v>32</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.0866</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>9</v>
+      </c>
+      <c r="B287" t="n">
+        <v>73</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.0849</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>9</v>
+      </c>
+      <c r="B288" t="n">
+        <v>27</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.0799</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>9</v>
+      </c>
+      <c r="B289" t="n">
+        <v>31</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.07829999999999999</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>9</v>
+      </c>
+      <c r="B290" t="n">
+        <v>63</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.0745</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>9</v>
+      </c>
+      <c r="B291" t="n">
+        <v>72</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.074</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>9</v>
+      </c>
+      <c r="B292" t="n">
+        <v>52</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.0733</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>9</v>
+      </c>
+      <c r="B293" t="n">
+        <v>56</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.06660000000000001</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>9</v>
+      </c>
+      <c r="B294" t="n">
+        <v>65</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.0664</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>9</v>
+      </c>
+      <c r="B295" t="n">
+        <v>51</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.0591</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>9</v>
+      </c>
+      <c r="B296" t="n">
+        <v>14</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.0564</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>9</v>
+      </c>
+      <c r="B297" t="n">
+        <v>15</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.0517</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>9</v>
+      </c>
+      <c r="B298" t="n">
+        <v>42</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.0516</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>10</v>
+      </c>
+      <c r="B299" t="n">
         <v>71</v>
       </c>
-      <c r="C154" t="n">
-        <v>0.0078</v>
+      <c r="C299" t="n">
+        <v>0.203</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>10</v>
+      </c>
+      <c r="B300" t="n">
+        <v>29</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.1842</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>10</v>
+      </c>
+      <c r="B301" t="n">
+        <v>47</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.1694</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>10</v>
+      </c>
+      <c r="B302" t="n">
+        <v>17</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.1675</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>10</v>
+      </c>
+      <c r="B303" t="n">
+        <v>59</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.1498</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>10</v>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.1446</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>10</v>
+      </c>
+      <c r="B305" t="n">
+        <v>75</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.1443</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>10</v>
+      </c>
+      <c r="B306" t="n">
+        <v>85</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.1398</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>10</v>
+      </c>
+      <c r="B307" t="n">
+        <v>61</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.1272</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>10</v>
+      </c>
+      <c r="B308" t="n">
+        <v>67</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.1187</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>10</v>
+      </c>
+      <c r="B309" t="n">
+        <v>80</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.1092</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>10</v>
+      </c>
+      <c r="B310" t="n">
+        <v>11</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.1061</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>10</v>
+      </c>
+      <c r="B311" t="n">
+        <v>18</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.1061</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>10</v>
+      </c>
+      <c r="B312" t="n">
+        <v>76</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.1033</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>10</v>
+      </c>
+      <c r="B313" t="n">
+        <v>87</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.1025</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>10</v>
+      </c>
+      <c r="B314" t="n">
+        <v>15</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.1024</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>10</v>
+      </c>
+      <c r="B315" t="n">
+        <v>39</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.0985</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>10</v>
+      </c>
+      <c r="B316" t="n">
+        <v>53</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.09810000000000001</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>10</v>
+      </c>
+      <c r="B317" t="n">
+        <v>24</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.0977</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>10</v>
+      </c>
+      <c r="B318" t="n">
+        <v>20</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.0944</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>10</v>
+      </c>
+      <c r="B319" t="n">
+        <v>54</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.0931</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>10</v>
+      </c>
+      <c r="B320" t="n">
+        <v>7</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.0926</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>10</v>
+      </c>
+      <c r="B321" t="n">
+        <v>81</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.0848</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>10</v>
+      </c>
+      <c r="B322" t="n">
+        <v>49</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.0837</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>10</v>
+      </c>
+      <c r="B323" t="n">
+        <v>77</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.0815</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>10</v>
+      </c>
+      <c r="B324" t="n">
+        <v>62</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.0789</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>10</v>
+      </c>
+      <c r="B325" t="n">
+        <v>3</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.07829999999999999</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>10</v>
+      </c>
+      <c r="B326" t="n">
+        <v>70</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.0727</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>10</v>
+      </c>
+      <c r="B327" t="n">
+        <v>43</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.07140000000000001</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>10</v>
+      </c>
+      <c r="B328" t="n">
+        <v>13</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.07049999999999999</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>10</v>
+      </c>
+      <c r="B329" t="n">
+        <v>48</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.0703</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>10</v>
+      </c>
+      <c r="B330" t="n">
+        <v>12</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.0664</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>10</v>
+      </c>
+      <c r="B331" t="n">
+        <v>69</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.06469999999999999</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>10</v>
+      </c>
+      <c r="B332" t="n">
+        <v>31</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.0643</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>10</v>
+      </c>
+      <c r="B333" t="n">
+        <v>58</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.06270000000000001</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>10</v>
+      </c>
+      <c r="B334" t="n">
+        <v>82</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.0624</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>10</v>
+      </c>
+      <c r="B335" t="n">
+        <v>33</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.0588</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>10</v>
+      </c>
+      <c r="B336" t="n">
+        <v>38</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.0542</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>10</v>
+      </c>
+      <c r="B337" t="n">
+        <v>45</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.0542</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>10</v>
+      </c>
+      <c r="B338" t="n">
+        <v>8</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.0537</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>10</v>
+      </c>
+      <c r="B339" t="n">
+        <v>90</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.0529</v>
       </c>
     </row>
   </sheetData>
@@ -2387,7 +4422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2417,10 +4452,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0366</v>
+        <v>0.3767</v>
       </c>
     </row>
     <row r="3">
@@ -2428,10 +4463,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0198</v>
+        <v>0.1693</v>
       </c>
     </row>
     <row r="4">
@@ -2439,10 +4474,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0141</v>
+        <v>0.1278</v>
       </c>
     </row>
     <row r="5">
@@ -2450,10 +4485,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.1255</v>
       </c>
     </row>
     <row r="6">
@@ -2461,10 +4496,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0083</v>
+        <v>0.1231</v>
       </c>
     </row>
     <row r="7">
@@ -2472,10 +4507,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0076</v>
+        <v>0.1225</v>
       </c>
     </row>
     <row r="8">
@@ -2483,10 +4518,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0074</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9">
@@ -2494,10 +4529,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0073</v>
+        <v>0.1182</v>
       </c>
     </row>
     <row r="10">
@@ -2505,10 +4540,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007</v>
+        <v>0.0925</v>
       </c>
     </row>
     <row r="11">
@@ -2516,10 +4551,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007</v>
+        <v>0.0882</v>
       </c>
     </row>
     <row r="12">
@@ -2527,10 +4562,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0069</v>
+        <v>0.0871</v>
       </c>
     </row>
     <row r="13">
@@ -2538,10 +4573,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0064</v>
+        <v>0.08450000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -2549,10 +4584,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0064</v>
+        <v>0.0798</v>
       </c>
     </row>
     <row r="15">
@@ -2560,10 +4595,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0064</v>
+        <v>0.0766</v>
       </c>
     </row>
     <row r="16">
@@ -2571,10 +4606,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0063</v>
+        <v>0.0728</v>
       </c>
     </row>
     <row r="17">
@@ -2582,10 +4617,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0062</v>
+        <v>0.0721</v>
       </c>
     </row>
     <row r="18">
@@ -2593,10 +4628,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0062</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -2604,197 +4639,197 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0058</v>
+        <v>0.06370000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0536</v>
+        <v>0.0617</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
         <v>61</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0536</v>
+        <v>0.0617</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0392</v>
+        <v>0.0606</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0336</v>
+        <v>0.0602</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C24" t="n">
-        <v>0.028</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0162</v>
+        <v>0.0571</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0145</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0141</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0137</v>
+        <v>0.0544</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0136</v>
+        <v>0.0534</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0089</v>
+        <v>0.0528</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0081</v>
+        <v>0.0528</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008</v>
+        <v>0.0517</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C33" t="n">
-        <v>0.008</v>
+        <v>0.0516</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0078</v>
+        <v>0.0512</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0077</v>
+        <v>0.0508</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0077</v>
+        <v>0.0507</v>
       </c>
     </row>
     <row r="37">
@@ -2802,10 +4837,10 @@
         <v>2</v>
       </c>
       <c r="B37" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0077</v>
+        <v>0.3091</v>
       </c>
     </row>
     <row r="38">
@@ -2813,10 +4848,10 @@
         <v>2</v>
       </c>
       <c r="B38" t="n">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0074</v>
+        <v>0.2079</v>
       </c>
     </row>
     <row r="39">
@@ -2824,10 +4859,10 @@
         <v>2</v>
       </c>
       <c r="B39" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0073</v>
+        <v>0.1997</v>
       </c>
     </row>
     <row r="40">
@@ -2835,10 +4870,10 @@
         <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C40" t="n">
-        <v>0.007</v>
+        <v>0.1971</v>
       </c>
     </row>
     <row r="41">
@@ -2846,10 +4881,10 @@
         <v>2</v>
       </c>
       <c r="B41" t="n">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0069</v>
+        <v>0.1784</v>
       </c>
     </row>
     <row r="42">
@@ -2857,10 +4892,10 @@
         <v>2</v>
       </c>
       <c r="B42" t="n">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0069</v>
+        <v>0.1652</v>
       </c>
     </row>
     <row r="43">
@@ -2868,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="B43" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0068</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="44">
@@ -2879,10 +4914,10 @@
         <v>2</v>
       </c>
       <c r="B44" t="n">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0067</v>
+        <v>0.1581</v>
       </c>
     </row>
     <row r="45">
@@ -2890,1264 +4925,4025 @@
         <v>2</v>
       </c>
       <c r="B45" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0063</v>
+        <v>0.1581</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0306</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0297</v>
+        <v>0.1493</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" t="n">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0297</v>
+        <v>0.1479</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0229</v>
+        <v>0.1463</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0213</v>
+        <v>0.1457</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" t="n">
         <v>15</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0204</v>
+        <v>0.1453</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" t="n">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0203</v>
+        <v>0.1444</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0197</v>
+        <v>0.1402</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0193</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0177</v>
+        <v>0.1338</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" t="n">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0171</v>
+        <v>0.1265</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B57" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0169</v>
+        <v>0.1249</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B58" t="n">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0104</v>
+        <v>0.1246</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" t="n">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0101</v>
+        <v>0.1202</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01</v>
+        <v>0.1195</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C61" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.1179</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0095</v>
+        <v>0.1158</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C63" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0091</v>
+        <v>0.1085</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B65" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C65" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B66" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C66" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.0983</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B67" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C67" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.09420000000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B68" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0283</v>
+        <v>0.0922</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B69" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0247</v>
+        <v>0.09180000000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B70" t="n">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0247</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B71" t="n">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0235</v>
+        <v>0.0911</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B72" t="n">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0213</v>
+        <v>0.0868</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0179</v>
+        <v>0.0788</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B74" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0168</v>
+        <v>0.07770000000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B75" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0156</v>
+        <v>0.0765</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B76" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C76" t="n">
-        <v>0.015</v>
+        <v>0.0759</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B77" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C77" t="n">
-        <v>0.015</v>
+        <v>0.0726</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C78" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0703</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B79" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0095</v>
+        <v>0.0702</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B80" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0092</v>
+        <v>0.0679</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B81" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0092</v>
+        <v>0.0673</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B82" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0091</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B83" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0091</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B84" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C84" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.0623</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>0.008200000000000001</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B86" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0081</v>
+        <v>0.0614</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B87" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0077</v>
+        <v>0.0614</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B88" t="n">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0077</v>
+        <v>0.0609</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B89" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0076</v>
+        <v>0.0609</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B90" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C90" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.0603</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B91" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0095</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B92" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0078</v>
+        <v>0.0567</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B93" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0213</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B94" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0111</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B95" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0109</v>
+        <v>0.0533</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B96" t="n">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0095</v>
+        <v>0.0529</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B97" t="n">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0095</v>
+        <v>0.0527</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B98" t="n">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0283</v>
+        <v>0.0527</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B99" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0168</v>
+        <v>0.0522</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B100" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0162</v>
+        <v>0.0505</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B101" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0161</v>
+        <v>0.0504</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B102" t="n">
         <v>48</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0156</v>
+        <v>0.2477</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B103" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0139</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B104" t="n">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="C104" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.1013</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B105" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0086</v>
+        <v>0.09470000000000001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B106" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C106" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B107" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C107" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.08119999999999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B108" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0083</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B109" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0081</v>
+        <v>0.07140000000000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B110" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0081</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B111" t="n">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0078</v>
+        <v>0.0679</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B112" t="n">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0078</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B113" t="n">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0076</v>
+        <v>0.0602</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B114" t="n">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0075</v>
+        <v>0.0585</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B115" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0075</v>
+        <v>0.0579</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B116" t="n">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0075</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B117" t="n">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C117" t="n">
-        <v>0.018</v>
+        <v>0.0559</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B118" t="n">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C118" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B119" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0086</v>
+        <v>0.0549</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B120" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0086</v>
+        <v>0.0541</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B121" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0083</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B122" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0083</v>
+        <v>0.2677</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B123" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0081</v>
+        <v>0.1582</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B124" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C124" t="n">
-        <v>0.008</v>
+        <v>0.1463</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B125" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0077</v>
+        <v>0.1448</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B126" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0077</v>
+        <v>0.1411</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B127" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0309</v>
+        <v>0.1345</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B128" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0298</v>
+        <v>0.1343</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B129" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0295</v>
+        <v>0.1263</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B130" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0268</v>
+        <v>0.1244</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B131" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0252</v>
+        <v>0.1209</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B132" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0231</v>
+        <v>0.1205</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B133" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0199</v>
+        <v>0.1077</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B134" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0186</v>
+        <v>0.1074</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B135" t="n">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0179</v>
+        <v>0.1049</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B136" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0178</v>
+        <v>0.1011</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B137" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0178</v>
+        <v>0.0997</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B138" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0177</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B139" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0172</v>
+        <v>0.09329999999999999</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B140" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0172</v>
+        <v>0.09229999999999999</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B141" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0172</v>
+        <v>0.09130000000000001</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B142" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0154</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B143" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0152</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B144" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0152</v>
+        <v>0.08790000000000001</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B145" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0151</v>
+        <v>0.0861</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B146" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C146" t="n">
-        <v>0.015</v>
+        <v>0.0861</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0149</v>
+        <v>0.0848</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B148" t="n">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0094</v>
+        <v>0.0844</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B149" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0091</v>
+        <v>0.0837</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B150" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0091</v>
+        <v>0.0823</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B151" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C151" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.0808</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B152" t="n">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C152" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.08019999999999999</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B153" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C153" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.0791</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B154" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0086</v>
+        <v>0.0789</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B155" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0083</v>
+        <v>0.07770000000000001</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B156" t="n">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0081</v>
+        <v>0.0765</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B157" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C157" t="n">
-        <v>0.008</v>
+        <v>0.0747</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B158" t="n">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="C158" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.07439999999999999</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B159" t="n">
+        <v>33</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.0727</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>4</v>
+      </c>
+      <c r="B160" t="n">
+        <v>43</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.0718</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>4</v>
+      </c>
+      <c r="B161" t="n">
+        <v>65</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.0717</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>4</v>
+      </c>
+      <c r="B162" t="n">
+        <v>17</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.0694</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>4</v>
+      </c>
+      <c r="B163" t="n">
+        <v>37</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.0667</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>4</v>
+      </c>
+      <c r="B164" t="n">
+        <v>55</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.0667</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>4</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.0665</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>4</v>
+      </c>
+      <c r="B166" t="n">
+        <v>84</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.0645</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>4</v>
+      </c>
+      <c r="B167" t="n">
+        <v>20</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.0641</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>4</v>
+      </c>
+      <c r="B168" t="n">
+        <v>45</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>4</v>
+      </c>
+      <c r="B169" t="n">
+        <v>63</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.0624</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>4</v>
+      </c>
+      <c r="B170" t="n">
+        <v>27</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.0623</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>4</v>
+      </c>
+      <c r="B171" t="n">
+        <v>12</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.0609</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>4</v>
+      </c>
+      <c r="B172" t="n">
+        <v>73</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.0603</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>4</v>
+      </c>
+      <c r="B173" t="n">
+        <v>30</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>4</v>
+      </c>
+      <c r="B174" t="n">
+        <v>26</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.0581</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>4</v>
+      </c>
+      <c r="B175" t="n">
+        <v>77</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.0572</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>4</v>
+      </c>
+      <c r="B176" t="n">
+        <v>90</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.0571</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>4</v>
+      </c>
+      <c r="B177" t="n">
+        <v>62</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>4</v>
+      </c>
+      <c r="B178" t="n">
+        <v>34</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.0541</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>4</v>
+      </c>
+      <c r="B179" t="n">
+        <v>78</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.0537</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>4</v>
+      </c>
+      <c r="B180" t="n">
+        <v>59</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.0529</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>4</v>
+      </c>
+      <c r="B181" t="n">
+        <v>16</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.0521</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>4</v>
+      </c>
+      <c r="B182" t="n">
+        <v>42</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.0506</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>4</v>
+      </c>
+      <c r="B183" t="n">
+        <v>74</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.0506</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>4</v>
+      </c>
+      <c r="B184" t="n">
+        <v>29</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.0505</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>5</v>
+      </c>
+      <c r="B185" t="n">
+        <v>18</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.077</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>5</v>
+      </c>
+      <c r="B186" t="n">
         <v>71</v>
       </c>
-      <c r="C159" t="n">
-        <v>0.0078</v>
+      <c r="C186" t="n">
+        <v>0.0654</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>5</v>
+      </c>
+      <c r="B187" t="n">
+        <v>44</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.0558</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>5</v>
+      </c>
+      <c r="B188" t="n">
+        <v>29</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.0525</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>5</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.052</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>5</v>
+      </c>
+      <c r="B190" t="n">
+        <v>31</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.0513</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>5</v>
+      </c>
+      <c r="B191" t="n">
+        <v>47</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.0511</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>5</v>
+      </c>
+      <c r="B192" t="n">
+        <v>45</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.0504</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>6</v>
+      </c>
+      <c r="B193" t="n">
+        <v>21</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.2913</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>6</v>
+      </c>
+      <c r="B194" t="n">
+        <v>27</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.2688</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>6</v>
+      </c>
+      <c r="B195" t="n">
+        <v>89</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.2452</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>6</v>
+      </c>
+      <c r="B196" t="n">
+        <v>55</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.2262</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>6</v>
+      </c>
+      <c r="B197" t="n">
+        <v>82</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.2175</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>6</v>
+      </c>
+      <c r="B198" t="n">
+        <v>49</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.1889</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>6</v>
+      </c>
+      <c r="B199" t="n">
+        <v>67</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.1143</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>6</v>
+      </c>
+      <c r="B200" t="n">
+        <v>52</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.1045</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>6</v>
+      </c>
+      <c r="B201" t="n">
+        <v>16</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.09719999999999999</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>6</v>
+      </c>
+      <c r="B202" t="n">
+        <v>63</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.09669999999999999</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>6</v>
+      </c>
+      <c r="B203" t="n">
+        <v>41</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.08840000000000001</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>6</v>
+      </c>
+      <c r="B204" t="n">
+        <v>59</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.0806</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>6</v>
+      </c>
+      <c r="B205" t="n">
+        <v>57</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>6</v>
+      </c>
+      <c r="B206" t="n">
+        <v>15</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.0694</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>6</v>
+      </c>
+      <c r="B207" t="n">
+        <v>80</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.06850000000000001</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>6</v>
+      </c>
+      <c r="B208" t="n">
+        <v>20</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.0683</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>6</v>
+      </c>
+      <c r="B209" t="n">
+        <v>33</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.06710000000000001</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>6</v>
+      </c>
+      <c r="B210" t="n">
+        <v>85</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.0659</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>6</v>
+      </c>
+      <c r="B211" t="n">
+        <v>42</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.0649</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>6</v>
+      </c>
+      <c r="B212" t="n">
+        <v>31</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.0636</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>6</v>
+      </c>
+      <c r="B213" t="n">
+        <v>87</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.063</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>6</v>
+      </c>
+      <c r="B214" t="n">
+        <v>39</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.0619</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>6</v>
+      </c>
+      <c r="B215" t="n">
+        <v>32</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.0609</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>6</v>
+      </c>
+      <c r="B216" t="n">
+        <v>75</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.0577</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>6</v>
+      </c>
+      <c r="B217" t="n">
+        <v>7</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.0576</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>6</v>
+      </c>
+      <c r="B218" t="n">
+        <v>62</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.0569</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>6</v>
+      </c>
+      <c r="B219" t="n">
+        <v>44</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.0537</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>6</v>
+      </c>
+      <c r="B220" t="n">
+        <v>43</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.0529</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>7</v>
+      </c>
+      <c r="B221" t="n">
+        <v>19</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.2075</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>7</v>
+      </c>
+      <c r="B222" t="n">
+        <v>42</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.1598</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>7</v>
+      </c>
+      <c r="B223" t="n">
+        <v>16</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.1582</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>7</v>
+      </c>
+      <c r="B224" t="n">
+        <v>15</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.137</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>7</v>
+      </c>
+      <c r="B225" t="n">
+        <v>46</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.1243</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>7</v>
+      </c>
+      <c r="B226" t="n">
+        <v>14</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.1149</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>7</v>
+      </c>
+      <c r="B227" t="n">
+        <v>60</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.1149</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>7</v>
+      </c>
+      <c r="B228" t="n">
+        <v>56</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.1109</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>7</v>
+      </c>
+      <c r="B229" t="n">
+        <v>44</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>7</v>
+      </c>
+      <c r="B230" t="n">
+        <v>74</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.1061</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>7</v>
+      </c>
+      <c r="B231" t="n">
+        <v>47</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.1015</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>7</v>
+      </c>
+      <c r="B232" t="n">
+        <v>53</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.1007</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>7</v>
+      </c>
+      <c r="B233" t="n">
+        <v>75</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>7</v>
+      </c>
+      <c r="B234" t="n">
+        <v>12</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.09909999999999999</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>7</v>
+      </c>
+      <c r="B235" t="n">
+        <v>49</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.09379999999999999</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>7</v>
+      </c>
+      <c r="B236" t="n">
+        <v>85</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.0929</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>7</v>
+      </c>
+      <c r="B237" t="n">
+        <v>28</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.092</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>7</v>
+      </c>
+      <c r="B238" t="n">
+        <v>58</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>7</v>
+      </c>
+      <c r="B239" t="n">
+        <v>39</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.0859</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>7</v>
+      </c>
+      <c r="B240" t="n">
+        <v>79</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.0858</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>7</v>
+      </c>
+      <c r="B241" t="n">
+        <v>43</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.08450000000000001</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>7</v>
+      </c>
+      <c r="B242" t="n">
+        <v>82</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.0844</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>7</v>
+      </c>
+      <c r="B243" t="n">
+        <v>36</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.08210000000000001</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>7</v>
+      </c>
+      <c r="B244" t="n">
+        <v>48</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.0815</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>7</v>
+      </c>
+      <c r="B245" t="n">
+        <v>27</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.08110000000000001</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>7</v>
+      </c>
+      <c r="B246" t="n">
+        <v>57</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.0799</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>7</v>
+      </c>
+      <c r="B247" t="n">
+        <v>3</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.0798</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>7</v>
+      </c>
+      <c r="B248" t="n">
+        <v>31</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.07969999999999999</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>7</v>
+      </c>
+      <c r="B249" t="n">
+        <v>76</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.07580000000000001</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>7</v>
+      </c>
+      <c r="B250" t="n">
+        <v>24</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>7</v>
+      </c>
+      <c r="B251" t="n">
+        <v>78</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.073</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>7</v>
+      </c>
+      <c r="B252" t="n">
+        <v>90</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.0725</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>7</v>
+      </c>
+      <c r="B253" t="n">
+        <v>5</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.0711</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>7</v>
+      </c>
+      <c r="B254" t="n">
+        <v>65</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.0678</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>7</v>
+      </c>
+      <c r="B255" t="n">
+        <v>89</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.0677</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>7</v>
+      </c>
+      <c r="B256" t="n">
+        <v>7</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.0674</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>7</v>
+      </c>
+      <c r="B257" t="n">
+        <v>81</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.067</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>7</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.0669</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>7</v>
+      </c>
+      <c r="B259" t="n">
+        <v>61</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.0658</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>7</v>
+      </c>
+      <c r="B260" t="n">
+        <v>25</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.0643</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>7</v>
+      </c>
+      <c r="B261" t="n">
+        <v>20</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.0634</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>7</v>
+      </c>
+      <c r="B262" t="n">
+        <v>51</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.0634</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>7</v>
+      </c>
+      <c r="B263" t="n">
+        <v>18</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.0614</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>7</v>
+      </c>
+      <c r="B264" t="n">
+        <v>88</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.0611</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>7</v>
+      </c>
+      <c r="B265" t="n">
+        <v>83</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.0605</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>7</v>
+      </c>
+      <c r="B266" t="n">
+        <v>13</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.0583</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>7</v>
+      </c>
+      <c r="B267" t="n">
+        <v>33</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.0577</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>7</v>
+      </c>
+      <c r="B268" t="n">
+        <v>52</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.0537</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>7</v>
+      </c>
+      <c r="B269" t="n">
+        <v>11</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.0529</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>7</v>
+      </c>
+      <c r="B270" t="n">
+        <v>59</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>7</v>
+      </c>
+      <c r="B271" t="n">
+        <v>26</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.0506</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>7</v>
+      </c>
+      <c r="B272" t="n">
+        <v>30</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.0503</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>7</v>
+      </c>
+      <c r="B273" t="n">
+        <v>69</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.0503</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>8</v>
+      </c>
+      <c r="B274" t="n">
+        <v>76</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.3578</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>8</v>
+      </c>
+      <c r="B275" t="n">
+        <v>81</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.2082</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>8</v>
+      </c>
+      <c r="B276" t="n">
+        <v>17</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.1908</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>8</v>
+      </c>
+      <c r="B277" t="n">
+        <v>61</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>8</v>
+      </c>
+      <c r="B278" t="n">
+        <v>59</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.1728</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>8</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.1589</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>8</v>
+      </c>
+      <c r="B280" t="n">
+        <v>75</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.1361</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>8</v>
+      </c>
+      <c r="B281" t="n">
+        <v>15</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.1328</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>8</v>
+      </c>
+      <c r="B282" t="n">
+        <v>82</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.1316</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>8</v>
+      </c>
+      <c r="B283" t="n">
+        <v>85</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.1309</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>8</v>
+      </c>
+      <c r="B284" t="n">
+        <v>53</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.1275</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>8</v>
+      </c>
+      <c r="B285" t="n">
+        <v>47</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.1272</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>8</v>
+      </c>
+      <c r="B286" t="n">
+        <v>18</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.1218</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>8</v>
+      </c>
+      <c r="B287" t="n">
+        <v>20</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.119</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>8</v>
+      </c>
+      <c r="B288" t="n">
+        <v>69</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.1184</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>8</v>
+      </c>
+      <c r="B289" t="n">
+        <v>80</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.1141</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>8</v>
+      </c>
+      <c r="B290" t="n">
+        <v>67</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.1103</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>8</v>
+      </c>
+      <c r="B291" t="n">
+        <v>60</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.1079</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>8</v>
+      </c>
+      <c r="B292" t="n">
+        <v>11</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>8</v>
+      </c>
+      <c r="B293" t="n">
+        <v>44</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.1034</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>8</v>
+      </c>
+      <c r="B294" t="n">
+        <v>49</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.09859999999999999</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>8</v>
+      </c>
+      <c r="B295" t="n">
+        <v>39</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>8</v>
+      </c>
+      <c r="B296" t="n">
+        <v>7</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.0979</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>8</v>
+      </c>
+      <c r="B297" t="n">
+        <v>87</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.0968</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>8</v>
+      </c>
+      <c r="B298" t="n">
+        <v>62</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.09420000000000001</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>8</v>
+      </c>
+      <c r="B299" t="n">
+        <v>43</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.0921</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>8</v>
+      </c>
+      <c r="B300" t="n">
+        <v>50</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.09130000000000001</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>8</v>
+      </c>
+      <c r="B301" t="n">
+        <v>58</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.0905</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>8</v>
+      </c>
+      <c r="B302" t="n">
+        <v>48</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.09030000000000001</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>8</v>
+      </c>
+      <c r="B303" t="n">
+        <v>8</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>8</v>
+      </c>
+      <c r="B304" t="n">
+        <v>16</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.08890000000000001</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>8</v>
+      </c>
+      <c r="B305" t="n">
+        <v>73</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.0857</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>8</v>
+      </c>
+      <c r="B306" t="n">
+        <v>89</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.0838</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>8</v>
+      </c>
+      <c r="B307" t="n">
+        <v>31</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.082</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>8</v>
+      </c>
+      <c r="B308" t="n">
+        <v>21</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.0819</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>8</v>
+      </c>
+      <c r="B309" t="n">
+        <v>12</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.07969999999999999</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>8</v>
+      </c>
+      <c r="B310" t="n">
+        <v>13</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.0791</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>8</v>
+      </c>
+      <c r="B311" t="n">
+        <v>55</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.0771</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>8</v>
+      </c>
+      <c r="B312" t="n">
+        <v>3</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.07580000000000001</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>8</v>
+      </c>
+      <c r="B313" t="n">
+        <v>24</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.074</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>8</v>
+      </c>
+      <c r="B314" t="n">
+        <v>77</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.0737</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>8</v>
+      </c>
+      <c r="B315" t="n">
+        <v>27</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.0697</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>8</v>
+      </c>
+      <c r="B316" t="n">
+        <v>38</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.06859999999999999</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>8</v>
+      </c>
+      <c r="B317" t="n">
+        <v>66</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.0667</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>8</v>
+      </c>
+      <c r="B318" t="n">
+        <v>78</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.0663</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>8</v>
+      </c>
+      <c r="B319" t="n">
+        <v>25</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.06619999999999999</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>8</v>
+      </c>
+      <c r="B320" t="n">
+        <v>33</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.0634</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>8</v>
+      </c>
+      <c r="B321" t="n">
+        <v>83</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.0616</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>8</v>
+      </c>
+      <c r="B322" t="n">
+        <v>84</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.0616</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>8</v>
+      </c>
+      <c r="B323" t="n">
+        <v>90</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.0604</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>8</v>
+      </c>
+      <c r="B324" t="n">
+        <v>4</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.0598</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>8</v>
+      </c>
+      <c r="B325" t="n">
+        <v>79</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.0589</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>8</v>
+      </c>
+      <c r="B326" t="n">
+        <v>70</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.0586</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>8</v>
+      </c>
+      <c r="B327" t="n">
+        <v>51</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.0572</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>8</v>
+      </c>
+      <c r="B328" t="n">
+        <v>26</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.0566</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>8</v>
+      </c>
+      <c r="B329" t="n">
+        <v>35</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.0551</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>8</v>
+      </c>
+      <c r="B330" t="n">
+        <v>28</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>8</v>
+      </c>
+      <c r="B331" t="n">
+        <v>65</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.0547</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>8</v>
+      </c>
+      <c r="B332" t="n">
+        <v>10</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.0524</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>8</v>
+      </c>
+      <c r="B333" t="n">
+        <v>29</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.0506</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>8</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>9</v>
+      </c>
+      <c r="B335" t="n">
+        <v>46</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.4306</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>9</v>
+      </c>
+      <c r="B336" t="n">
+        <v>88</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.1449</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>9</v>
+      </c>
+      <c r="B337" t="n">
+        <v>16</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.1348</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>9</v>
+      </c>
+      <c r="B338" t="n">
+        <v>53</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.1148</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>9</v>
+      </c>
+      <c r="B339" t="n">
+        <v>74</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.1069</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>9</v>
+      </c>
+      <c r="B340" t="n">
+        <v>52</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.1004</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>9</v>
+      </c>
+      <c r="B341" t="n">
+        <v>31</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.0975</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>9</v>
+      </c>
+      <c r="B342" t="n">
+        <v>57</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.09429999999999999</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>9</v>
+      </c>
+      <c r="B343" t="n">
+        <v>73</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.09379999999999999</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>9</v>
+      </c>
+      <c r="B344" t="n">
+        <v>27</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.0887</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>9</v>
+      </c>
+      <c r="B345" t="n">
+        <v>24</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.0881</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>9</v>
+      </c>
+      <c r="B346" t="n">
+        <v>32</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.0878</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>9</v>
+      </c>
+      <c r="B347" t="n">
+        <v>63</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.0834</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>9</v>
+      </c>
+      <c r="B348" t="n">
+        <v>42</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.08119999999999999</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>9</v>
+      </c>
+      <c r="B349" t="n">
+        <v>9</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.07870000000000001</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>9</v>
+      </c>
+      <c r="B350" t="n">
+        <v>65</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.0764</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>9</v>
+      </c>
+      <c r="B351" t="n">
+        <v>3</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.0684</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>9</v>
+      </c>
+      <c r="B352" t="n">
+        <v>51</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.0668</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>9</v>
+      </c>
+      <c r="B353" t="n">
+        <v>70</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.0646</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>9</v>
+      </c>
+      <c r="B354" t="n">
+        <v>5</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.063</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>9</v>
+      </c>
+      <c r="B355" t="n">
+        <v>56</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.0623</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>9</v>
+      </c>
+      <c r="B356" t="n">
+        <v>60</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.0623</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>9</v>
+      </c>
+      <c r="B357" t="n">
+        <v>14</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.0617</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>9</v>
+      </c>
+      <c r="B358" t="n">
+        <v>39</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.0598</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>9</v>
+      </c>
+      <c r="B359" t="n">
+        <v>12</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>9</v>
+      </c>
+      <c r="B360" t="n">
+        <v>15</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.0535</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>9</v>
+      </c>
+      <c r="B361" t="n">
+        <v>72</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.0514</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>9</v>
+      </c>
+      <c r="B362" t="n">
+        <v>7</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.0512</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>9</v>
+      </c>
+      <c r="B363" t="n">
+        <v>35</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.0511</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>9</v>
+      </c>
+      <c r="B364" t="n">
+        <v>75</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.0507</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>9</v>
+      </c>
+      <c r="B365" t="n">
+        <v>83</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.0504</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>10</v>
+      </c>
+      <c r="B366" t="n">
+        <v>71</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.2044</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>10</v>
+      </c>
+      <c r="B367" t="n">
+        <v>29</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.1982</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>10</v>
+      </c>
+      <c r="B368" t="n">
+        <v>17</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.1758</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>10</v>
+      </c>
+      <c r="B369" t="n">
+        <v>47</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.1748</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>10</v>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.1735</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>10</v>
+      </c>
+      <c r="B371" t="n">
+        <v>59</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.1553</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>10</v>
+      </c>
+      <c r="B372" t="n">
+        <v>75</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.1467</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>10</v>
+      </c>
+      <c r="B373" t="n">
+        <v>61</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.1351</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>10</v>
+      </c>
+      <c r="B374" t="n">
+        <v>85</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.1304</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>10</v>
+      </c>
+      <c r="B375" t="n">
+        <v>67</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.1253</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>10</v>
+      </c>
+      <c r="B376" t="n">
+        <v>11</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.1212</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>10</v>
+      </c>
+      <c r="B377" t="n">
+        <v>18</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.1142</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>10</v>
+      </c>
+      <c r="B378" t="n">
+        <v>76</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>10</v>
+      </c>
+      <c r="B379" t="n">
+        <v>15</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.1114</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>10</v>
+      </c>
+      <c r="B380" t="n">
+        <v>80</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.1085</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>10</v>
+      </c>
+      <c r="B381" t="n">
+        <v>39</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>10</v>
+      </c>
+      <c r="B382" t="n">
+        <v>20</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.102</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>10</v>
+      </c>
+      <c r="B383" t="n">
+        <v>24</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.0997</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>10</v>
+      </c>
+      <c r="B384" t="n">
+        <v>53</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.0997</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>10</v>
+      </c>
+      <c r="B385" t="n">
+        <v>87</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.0979</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>10</v>
+      </c>
+      <c r="B386" t="n">
+        <v>58</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.0977</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>10</v>
+      </c>
+      <c r="B387" t="n">
+        <v>7</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0.0974</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>10</v>
+      </c>
+      <c r="B388" t="n">
+        <v>54</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.09660000000000001</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>10</v>
+      </c>
+      <c r="B389" t="n">
+        <v>49</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.09329999999999999</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>10</v>
+      </c>
+      <c r="B390" t="n">
+        <v>81</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.0861</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>10</v>
+      </c>
+      <c r="B391" t="n">
+        <v>77</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.0858</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>10</v>
+      </c>
+      <c r="B392" t="n">
+        <v>62</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.08550000000000001</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>10</v>
+      </c>
+      <c r="B393" t="n">
+        <v>43</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.0838</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>10</v>
+      </c>
+      <c r="B394" t="n">
+        <v>70</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.0806</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>10</v>
+      </c>
+      <c r="B395" t="n">
+        <v>3</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.0795</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>10</v>
+      </c>
+      <c r="B396" t="n">
+        <v>13</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.0775</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>10</v>
+      </c>
+      <c r="B397" t="n">
+        <v>33</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.0717</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>10</v>
+      </c>
+      <c r="B398" t="n">
+        <v>90</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.07140000000000001</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>10</v>
+      </c>
+      <c r="B399" t="n">
+        <v>48</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.0706</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>10</v>
+      </c>
+      <c r="B400" t="n">
+        <v>31</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.06950000000000001</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>10</v>
+      </c>
+      <c r="B401" t="n">
+        <v>12</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.0672</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>10</v>
+      </c>
+      <c r="B402" t="n">
+        <v>82</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.0669</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>10</v>
+      </c>
+      <c r="B403" t="n">
+        <v>69</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.06660000000000001</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>10</v>
+      </c>
+      <c r="B404" t="n">
+        <v>38</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.0592</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>10</v>
+      </c>
+      <c r="B405" t="n">
+        <v>8</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.0569</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>10</v>
+      </c>
+      <c r="B406" t="n">
+        <v>9</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.0561</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>10</v>
+      </c>
+      <c r="B407" t="n">
+        <v>45</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.0542</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>10</v>
+      </c>
+      <c r="B408" t="n">
+        <v>16</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.0523</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>10</v>
+      </c>
+      <c r="B409" t="n">
+        <v>28</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.0517</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>10</v>
+      </c>
+      <c r="B410" t="n">
+        <v>56</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.0511</v>
       </c>
     </row>
   </sheetData>
